--- a/InputData/indst/ItICM/Industry to ISIC Code Map.xlsx
+++ b/InputData/indst/ItICM/Industry to ISIC Code Map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\indst\ItICM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeng\Dropbox (Energy Innovation)\EU EPS\InputData\indst\ItICM (new)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4802AE02-3E6A-452C-8977-146D73DADD69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BCD668-AE86-4D9B-987A-75AE503D7C82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="585" windowWidth="24090" windowHeight="16650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="3855" windowWidth="19950" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Source:</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>ISIC 20: Chemicals</t>
+  </si>
+  <si>
+    <t>The EU EPS uses values from the US EPS.</t>
   </si>
 </sst>
 </file>
@@ -655,21 +658,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="77.5703125" customWidth="1"/>
+    <col min="2" max="2" width="77.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -677,151 +682,156 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A35" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A36" s="9" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A37" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A38" s="9" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A39" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A40" s="9" t="s">
         <v>75</v>
       </c>
     </row>
@@ -845,13 +855,13 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="34.140625" customWidth="1"/>
-    <col min="2" max="38" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="34.1328125" customWidth="1"/>
+    <col min="2" max="38" width="14.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="3" customFormat="1" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -967,7 +977,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1083,7 +1093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1199,7 +1209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1315,7 +1325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
@@ -1431,7 +1441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -1547,7 +1557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
@@ -1663,7 +1673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
@@ -1779,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>

--- a/InputData/indst/ItICM/Industry to ISIC Code Map.xlsx
+++ b/InputData/indst/ItICM/Industry to ISIC Code Map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\indst\ItICM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\indst\ItICM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4802AE02-3E6A-452C-8977-146D73DADD69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1139410A-90C3-41D4-9E03-DC3844EDF4FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="585" windowWidth="24090" windowHeight="16650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1725" yWindow="435" windowWidth="26295" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Source:</t>
   </si>
@@ -75,9 +75,6 @@
     <t>ISIC 01T03: Agriculture, forestry and fishing</t>
   </si>
   <si>
-    <t>ISIC 05T06: Mining and extraction of energy producing products</t>
-  </si>
-  <si>
     <t>ISIC 07T08: Mining and quarrying of non-energy producing products</t>
   </si>
   <si>
@@ -201,9 +198,6 @@
     <t>"natural gas and petroleum systems" is mapped onto</t>
   </si>
   <si>
-    <t>"ISIC 05T06: Mining and extraction of energy producing products"</t>
-  </si>
-  <si>
     <t>It is not also mapped onto "ISIC 09: Mining support service activities" (even though support activities</t>
   </si>
   <si>
@@ -225,40 +219,6 @@
     <t>flagged industries.</t>
   </si>
   <si>
-    <t>Coal Mining</t>
-  </si>
-  <si>
-    <t>In the U.S., we don't have a good ISIC code to map onto the "coal mining" industry, because roughly</t>
-  </si>
-  <si>
-    <t>90% of the output value of ISIC 05T06 is attributable to oil and gas mining, not coal mining.  We</t>
-  </si>
-  <si>
-    <t>choose to map nothing to coal mining for the U.S., so there will be no indirect spending effects</t>
-  </si>
-  <si>
-    <t>rather than to "natural gas and petroleum systems."</t>
-  </si>
-  <si>
-    <t>in oil/gas drilling, you should change the mapping to make ISIC 05T06 map to "coal mining,"</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">on this industry.  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>If adapting the EPS to a country or region that engages in coal mining but not</t>
-    </r>
-  </si>
-  <si>
     <t>Waste Management</t>
   </si>
   <si>
@@ -281,6 +241,15 @@
   </si>
   <si>
     <t>ISIC 20: Chemicals</t>
+  </si>
+  <si>
+    <t>ISIC 06: Oil and gas extraction</t>
+  </si>
+  <si>
+    <t>ISIC 05: Coal mining</t>
+  </si>
+  <si>
+    <t>"ISIC 06: Oil and gas extraction"</t>
   </si>
 </sst>
 </file>
@@ -655,7 +624,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -674,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -687,142 +656,107 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -836,7 +770,7 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AL9"/>
+  <dimension ref="A1:AM9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -848,10 +782,10 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.140625" customWidth="1"/>
-    <col min="2" max="38" width="14.140625" customWidth="1"/>
+    <col min="2" max="39" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -859,115 +793,118 @@
         <v>12</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="AA1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="AB1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AA1" s="5" t="s">
+      <c r="AC1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AB1" s="5" t="s">
+      <c r="AD1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AH1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AI1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="AH1" s="5" t="s">
+      <c r="AJ1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AI1" s="5" t="s">
+      <c r="AK1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AJ1" s="5" t="s">
+      <c r="AL1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="AK1" s="5" t="s">
+      <c r="AM1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="AL1" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -1007,11 +944,11 @@
       <c r="M2">
         <v>0</v>
       </c>
-      <c r="N2" s="7">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="7">
+        <v>1</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -1082,19 +1019,22 @@
       <c r="AL2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1198,8 +1138,11 @@
       <c r="AL3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -1242,11 +1185,11 @@
       <c r="N4">
         <v>0</v>
       </c>
-      <c r="O4" s="7">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="7">
+        <v>1</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -1314,8 +1257,11 @@
       <c r="AL4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
@@ -1346,11 +1292,11 @@
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5" s="7">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1430,16 +1376,19 @@
       <c r="AL5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>0</v>
+      <c r="C6" s="7">
+        <v>1</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1546,8 +1495,11 @@
       <c r="AL6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
@@ -1662,8 +1614,11 @@
       <c r="AL7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
@@ -1778,8 +1733,11 @@
       <c r="AL8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
@@ -1795,8 +1753,8 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9" s="7">
-        <v>1</v>
+      <c r="F9">
+        <v>0</v>
       </c>
       <c r="G9" s="7">
         <v>1</v>
@@ -1807,26 +1765,26 @@
       <c r="I9" s="7">
         <v>1</v>
       </c>
-      <c r="J9">
-        <v>0</v>
+      <c r="J9" s="7">
+        <v>1</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
-      <c r="L9" s="7">
-        <v>1</v>
+      <c r="L9">
+        <v>0</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
       </c>
-      <c r="N9">
-        <v>0</v>
+      <c r="N9" s="7">
+        <v>1</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-      <c r="P9" s="7">
-        <v>1</v>
+      <c r="P9">
+        <v>0</v>
       </c>
       <c r="Q9" s="7">
         <v>1</v>
@@ -1846,14 +1804,14 @@
       <c r="V9" s="7">
         <v>1</v>
       </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
+      <c r="W9" s="7">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>1</v>
       </c>
       <c r="Z9">
         <v>0</v>
@@ -1892,6 +1850,9 @@
         <v>0</v>
       </c>
       <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
         <v>0</v>
       </c>
     </row>
